--- a/backend/download/tunggakan.xlsx
+++ b/backend/download/tunggakan.xlsx
@@ -514,7 +514,7 @@
         <v>Rutin</v>
       </c>
       <c r="H2">
-        <v>1280294660</v>
+        <v>69000</v>
       </c>
       <c r="I2" t="str">
         <v>Strategis</v>
@@ -553,31 +553,31 @@
         <v>2022-03-20</v>
       </c>
       <c r="U2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="V2" t="str">
-        <v>WP suka jual sapi</v>
+        <v>kocak sih wp ny menurut gw</v>
       </c>
       <c r="W2" t="str">
-        <v>2022-07-20</v>
+        <v>2023-12-12</v>
       </c>
       <c r="X2">
-        <v>1280294660</v>
+        <v>69000</v>
       </c>
       <c r="Y2">
-        <v>45645156</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="str">
-        <v>melakukan visit ke wilayah usaha wajib pajak</v>
+        <v>saya bosan hidup bro</v>
       </c>
       <c r="AA2" t="str">
-        <v>banyak orang tolol di pasar malam</v>
+        <v>banyak kebodohan</v>
       </c>
       <c r="AB2" t="str">
         <v>tolong yang ulang tahun segera dilaksanakan</v>
       </c>
       <c r="AC2" t="str">
-        <v>Riani</v>
+        <v>Ajie</v>
       </c>
     </row>
     <row r="3">
@@ -642,7 +642,7 @@
         <v>2021-12-01</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V3" t="str">
         <v>WP suka jual sapi</v>
@@ -657,10 +657,10 @@
         <v>45645156</v>
       </c>
       <c r="Z3" t="str">
-        <v>melakukan visit ke wilayah usaha wajib pajak</v>
+        <v/>
       </c>
       <c r="AA3" t="str">
-        <v>banyak orang tolol di pasar malam</v>
+        <v>banyak orang tolol di pasar bang</v>
       </c>
       <c r="AB3" t="str">
         <v>tolong yang ulang tahun segera dilaksanakan</v>
@@ -731,7 +731,7 @@
         <v>2021-05-20</v>
       </c>
       <c r="U4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V4" t="str">
         <v>WP suka jual sapi</v>
@@ -743,7 +743,7 @@
         <v>1280294660</v>
       </c>
       <c r="Y4">
-        <v>45645156</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="str">
         <v>melakukan visit ke wilayah usaha wajib pajak</v>
@@ -820,7 +820,7 @@
         <v>2021-05-20</v>
       </c>
       <c r="U5">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="V5" t="str">
         <v>WP suka jual sapi</v>
@@ -909,7 +909,7 @@
         <v>2021-05-20</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V6" t="str">
         <v>WP suka jual anjing</v>
@@ -927,7 +927,7 @@
         <v>surat peringatan dikirim pada tanggal 20 mei 2022</v>
       </c>
       <c r="AA6" t="str">
-        <v/>
+        <v>banyak jajanan yang enak</v>
       </c>
       <c r="AB6" t="str">
         <v>tolong yang ulang tahun segera dilaksanakan</v>

--- a/backend/download/tunggakan.xlsx
+++ b/backend/download/tunggakan.xlsx
@@ -514,7 +514,7 @@
         <v>Rutin</v>
       </c>
       <c r="H2">
-        <v>69000</v>
+        <v>1280294660</v>
       </c>
       <c r="I2" t="str">
         <v>Strategis</v>
@@ -556,28 +556,28 @@
         <v>1</v>
       </c>
       <c r="V2" t="str">
-        <v>kocak sih wp ny menurut gw</v>
+        <v>WP suka makan babi</v>
       </c>
       <c r="W2" t="str">
-        <v>2023-12-12</v>
+        <v>2022-07-20</v>
       </c>
       <c r="X2">
-        <v>69000</v>
+        <v>20000</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>45645156</v>
       </c>
       <c r="Z2" t="str">
-        <v>saya bosan hidup bro</v>
+        <v>melakukan visit ke wilayah usaha wajib pajak</v>
       </c>
       <c r="AA2" t="str">
-        <v>banyak kebodohan</v>
+        <v>banyak orang tolol di pasar minggu</v>
       </c>
       <c r="AB2" t="str">
         <v>tolong yang ulang tahun segera dilaksanakan</v>
       </c>
       <c r="AC2" t="str">
-        <v>Ajie</v>
+        <v>Dzulfikar</v>
       </c>
     </row>
     <row r="3">
@@ -642,7 +642,7 @@
         <v>2021-12-01</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V3" t="str">
         <v>WP suka jual sapi</v>
@@ -657,10 +657,10 @@
         <v>45645156</v>
       </c>
       <c r="Z3" t="str">
-        <v/>
+        <v>melakukan visit ke wilayah usaha wajib pajak</v>
       </c>
       <c r="AA3" t="str">
-        <v>banyak orang tolol di pasar bang</v>
+        <v>banyak orang tolol di pasar malam</v>
       </c>
       <c r="AB3" t="str">
         <v>tolong yang ulang tahun segera dilaksanakan</v>
@@ -743,7 +743,7 @@
         <v>1280294660</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>45645156</v>
       </c>
       <c r="Z4" t="str">
         <v>melakukan visit ke wilayah usaha wajib pajak</v>
@@ -755,7 +755,7 @@
         <v>tolong yang ulang tahun segera dilaksanakan</v>
       </c>
       <c r="AC4" t="str">
-        <v>Riani</v>
+        <v>Agus</v>
       </c>
     </row>
     <row r="5">
@@ -820,7 +820,7 @@
         <v>2021-05-20</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V5" t="str">
         <v>WP suka jual sapi</v>
@@ -870,7 +870,7 @@
         <v>Pemsus</v>
       </c>
       <c r="H6">
-        <v>338964686</v>
+        <v>12000000</v>
       </c>
       <c r="I6" t="str">
         <v>Kewilayahan</v>
@@ -912,13 +912,13 @@
         <v>0.8</v>
       </c>
       <c r="V6" t="str">
-        <v>WP suka jual anjing</v>
+        <v>WP tidak mau membuka diri (kurang open minded)</v>
       </c>
       <c r="W6" t="str">
         <v>2022-06-20</v>
       </c>
       <c r="X6">
-        <v>100000000</v>
+        <v>150000000</v>
       </c>
       <c r="Y6">
         <v>45645156</v>
@@ -927,13 +927,13 @@
         <v>surat peringatan dikirim pada tanggal 20 mei 2022</v>
       </c>
       <c r="AA6" t="str">
-        <v>banyak jajanan yang enak</v>
+        <v>ada banyak bocil ff penghambat jalan</v>
       </c>
       <c r="AB6" t="str">
         <v>tolong yang ulang tahun segera dilaksanakan</v>
       </c>
       <c r="AC6" t="str">
-        <v>Agus</v>
+        <v>Ajie</v>
       </c>
     </row>
   </sheetData>

--- a/backend/download/tunggakan.xlsx
+++ b/backend/download/tunggakan.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,13 +556,13 @@
         <v>1</v>
       </c>
       <c r="V2" t="str">
-        <v>WP suka makan babi</v>
+        <v>WP suka curi-curi pandang sama sy hihi...</v>
       </c>
       <c r="W2" t="str">
         <v>2022-07-20</v>
       </c>
       <c r="X2">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="Y2">
         <v>45645156</v>
@@ -571,7 +571,7 @@
         <v>melakukan visit ke wilayah usaha wajib pajak</v>
       </c>
       <c r="AA2" t="str">
-        <v>banyak orang tolol di pasar minggu</v>
+        <v>ini bukan masalah apa ya .. tolong saya</v>
       </c>
       <c r="AB2" t="str">
         <v>tolong yang ulang tahun segera dilaksanakan</v>
@@ -936,9 +936,98 @@
         <v>Ajie</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>SUKARTI (usulan)</v>
+      </c>
+      <c r="C7" t="str">
+        <v>556672861712000</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0118 - 1218</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0118 - 1218</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Pemeriksaan Rutin - DSPP</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Rutin</v>
+      </c>
+      <c r="H7">
+        <v>4002975</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Strategis</v>
+      </c>
+      <c r="J7" t="str">
+        <v>ND-19/WPJ.29/KP.0405/RIK.SIS/2022</v>
+      </c>
+      <c r="K7" t="str">
+        <v>2021-12-07</v>
+      </c>
+      <c r="L7" t="str">
+        <v>ND-19/WPJ.29/KP.0405/RIK.SIS/2022</v>
+      </c>
+      <c r="M7" t="str">
+        <v>2021-12-07</v>
+      </c>
+      <c r="N7" t="str">
+        <v>ND-19/WPJ.29/KP.0405/RIK.SIS/2022</v>
+      </c>
+      <c r="O7" t="str">
+        <v>2021-12-07</v>
+      </c>
+      <c r="P7" t="str">
+        <v>ND-122/WPJ.29/KP.0400/2022</v>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v>Cahyo</v>
+      </c>
+      <c r="S7" t="str">
+        <v>PRIN-21/WPJ.29/KP.0404/RIK.SIS/2022</v>
+      </c>
+      <c r="T7" t="str">
+        <v>2022-09-13</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="str">
+        <v>WP suka jual monyet</v>
+      </c>
+      <c r="W7" t="str">
+        <v>2022-09-12</v>
+      </c>
+      <c r="X7">
+        <v>1000000</v>
+      </c>
+      <c r="Y7">
+        <v>45645156</v>
+      </c>
+      <c r="Z7" t="str">
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <v>saya juga bingugn</v>
+      </c>
+      <c r="AB7" t="str">
+        <v>anjay lama banget, lo digaji kaga kerja ape?</v>
+      </c>
+      <c r="AC7" t="str">
+        <v>Agus</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC7"/>
   </ignoredErrors>
 </worksheet>
 </file>